--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuteloli\Documents\School\College\Towson\COSC 412 - Software Engineering\Projects\Individual Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuteloli\Programming\_GIT_REPOSITORIES\Commander\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Evaluate Requirements</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Programming</t>
+  </si>
+  <si>
+    <t>Deployment testing</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +834,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="1"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -839,28 +842,28 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -879,21 +882,21 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -901,12 +904,12 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -922,9 +925,9 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="8"/>
@@ -943,13 +946,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -964,7 +967,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -985,14 +988,14 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1006,19 +1009,19 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -1027,7 +1030,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1035,40 +1038,40 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="A23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1087,49 +1090,49 @@
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="10"/>
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="A26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1148,21 +1151,21 @@
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="1"/>
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -1170,7 +1173,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1202,16 +1205,37 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
       <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
